--- a/po_analysis_by_asin/B09QV67R17_po_data.xlsx
+++ b/po_analysis_by_asin/B09QV67R17_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -557,7 +558,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -591,6 +592,299 @@
       </c>
       <c r="B5" t="n">
         <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>105</v>
+      </c>
+      <c r="C2" t="n">
+        <v>26.14963714840232</v>
+      </c>
+      <c r="D2" t="n">
+        <v>176.6909544716457</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>102</v>
+      </c>
+      <c r="C3" t="n">
+        <v>23.15275049975291</v>
+      </c>
+      <c r="D3" t="n">
+        <v>175.1296375519968</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>94</v>
+      </c>
+      <c r="C4" t="n">
+        <v>21.61384995795187</v>
+      </c>
+      <c r="D4" t="n">
+        <v>165.196124962135</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>91</v>
+      </c>
+      <c r="C5" t="n">
+        <v>15.42788924926889</v>
+      </c>
+      <c r="D5" t="n">
+        <v>164.4178572963136</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>83</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.57001962226484</v>
+      </c>
+      <c r="D6" t="n">
+        <v>149.4670598457256</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>80</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12.19043225580173</v>
+      </c>
+      <c r="D7" t="n">
+        <v>152.0774562613223</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>77</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.109051249158437</v>
+      </c>
+      <c r="D8" t="n">
+        <v>152.3001509243462</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>74</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.411920339565686</v>
+      </c>
+      <c r="D9" t="n">
+        <v>141.9977227810361</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>69</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-2.710380067376696</v>
+      </c>
+      <c r="D10" t="n">
+        <v>142.2136525871368</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>66</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-7.668767542907457</v>
+      </c>
+      <c r="D11" t="n">
+        <v>142.6056969788045</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>63</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-5.219801807151994</v>
+      </c>
+      <c r="D12" t="n">
+        <v>142.0427545330211</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>61</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-13.87951175949412</v>
+      </c>
+      <c r="D13" t="n">
+        <v>137.3826405120001</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>58</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-15.94283844641383</v>
+      </c>
+      <c r="D14" t="n">
+        <v>128.5815982752977</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>55</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-23.10265215820947</v>
+      </c>
+      <c r="D15" t="n">
+        <v>129.3827597471412</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>52</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-22.37088343893523</v>
+      </c>
+      <c r="D16" t="n">
+        <v>122.2635442215642</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>50</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-24.54276319635248</v>
+      </c>
+      <c r="D17" t="n">
+        <v>128.0326083219512</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>47</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-33.50845657029253</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.3047769805471</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>44</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-24.65405619488975</v>
+      </c>
+      <c r="D19" t="n">
+        <v>114.2431912120348</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09QV67R17_po_data.xlsx
+++ b/po_analysis_by_asin/B09QV67R17_po_data.xlsx
@@ -605,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,16 +624,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -642,12 +632,6 @@
       <c r="B2" t="n">
         <v>105</v>
       </c>
-      <c r="C2" t="n">
-        <v>26.14963714840232</v>
-      </c>
-      <c r="D2" t="n">
-        <v>176.6909544716457</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -656,12 +640,6 @@
       <c r="B3" t="n">
         <v>102</v>
       </c>
-      <c r="C3" t="n">
-        <v>23.15275049975291</v>
-      </c>
-      <c r="D3" t="n">
-        <v>175.1296375519968</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -670,12 +648,6 @@
       <c r="B4" t="n">
         <v>94</v>
       </c>
-      <c r="C4" t="n">
-        <v>21.61384995795187</v>
-      </c>
-      <c r="D4" t="n">
-        <v>165.196124962135</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -684,12 +656,6 @@
       <c r="B5" t="n">
         <v>91</v>
       </c>
-      <c r="C5" t="n">
-        <v>15.42788924926889</v>
-      </c>
-      <c r="D5" t="n">
-        <v>164.4178572963136</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -698,12 +664,6 @@
       <c r="B6" t="n">
         <v>83</v>
       </c>
-      <c r="C6" t="n">
-        <v>6.57001962226484</v>
-      </c>
-      <c r="D6" t="n">
-        <v>149.4670598457256</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -712,12 +672,6 @@
       <c r="B7" t="n">
         <v>80</v>
       </c>
-      <c r="C7" t="n">
-        <v>12.19043225580173</v>
-      </c>
-      <c r="D7" t="n">
-        <v>152.0774562613223</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -726,12 +680,6 @@
       <c r="B8" t="n">
         <v>77</v>
       </c>
-      <c r="C8" t="n">
-        <v>3.109051249158437</v>
-      </c>
-      <c r="D8" t="n">
-        <v>152.3001509243462</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -740,12 +688,6 @@
       <c r="B9" t="n">
         <v>74</v>
       </c>
-      <c r="C9" t="n">
-        <v>2.411920339565686</v>
-      </c>
-      <c r="D9" t="n">
-        <v>141.9977227810361</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -754,12 +696,6 @@
       <c r="B10" t="n">
         <v>69</v>
       </c>
-      <c r="C10" t="n">
-        <v>-2.710380067376696</v>
-      </c>
-      <c r="D10" t="n">
-        <v>142.2136525871368</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -768,12 +704,6 @@
       <c r="B11" t="n">
         <v>66</v>
       </c>
-      <c r="C11" t="n">
-        <v>-7.668767542907457</v>
-      </c>
-      <c r="D11" t="n">
-        <v>142.6056969788045</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -782,12 +712,6 @@
       <c r="B12" t="n">
         <v>63</v>
       </c>
-      <c r="C12" t="n">
-        <v>-5.219801807151994</v>
-      </c>
-      <c r="D12" t="n">
-        <v>142.0427545330211</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -796,12 +720,6 @@
       <c r="B13" t="n">
         <v>61</v>
       </c>
-      <c r="C13" t="n">
-        <v>-13.87951175949412</v>
-      </c>
-      <c r="D13" t="n">
-        <v>137.3826405120001</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -810,12 +728,6 @@
       <c r="B14" t="n">
         <v>58</v>
       </c>
-      <c r="C14" t="n">
-        <v>-15.94283844641383</v>
-      </c>
-      <c r="D14" t="n">
-        <v>128.5815982752977</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -824,12 +736,6 @@
       <c r="B15" t="n">
         <v>55</v>
       </c>
-      <c r="C15" t="n">
-        <v>-23.10265215820947</v>
-      </c>
-      <c r="D15" t="n">
-        <v>129.3827597471412</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -838,12 +744,6 @@
       <c r="B16" t="n">
         <v>52</v>
       </c>
-      <c r="C16" t="n">
-        <v>-22.37088343893523</v>
-      </c>
-      <c r="D16" t="n">
-        <v>122.2635442215642</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -852,12 +752,6 @@
       <c r="B17" t="n">
         <v>50</v>
       </c>
-      <c r="C17" t="n">
-        <v>-24.54276319635248</v>
-      </c>
-      <c r="D17" t="n">
-        <v>128.0326083219512</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -866,12 +760,6 @@
       <c r="B18" t="n">
         <v>47</v>
       </c>
-      <c r="C18" t="n">
-        <v>-33.50845657029253</v>
-      </c>
-      <c r="D18" t="n">
-        <v>123.3047769805471</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -879,12 +767,6 @@
       </c>
       <c r="B19" t="n">
         <v>44</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-24.65405619488975</v>
-      </c>
-      <c r="D19" t="n">
-        <v>114.2431912120348</v>
       </c>
     </row>
   </sheetData>
